--- a/FollowData.xlsx
+++ b/FollowData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>lizstewart99__</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>anusuya_balakrishnan7</t>
+  </si>
+  <si>
+    <t>crazypriyalovely07</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -505,6 +508,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
